--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1908.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A06B73E-B19C-4A33-9B0E-A66B8AA8139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC4A9A-A6FB-4907-9615-F454C8F38186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="75" windowWidth="27645" windowHeight="22020" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="190">
   <si>
     <t>губ</t>
   </si>
@@ -599,6 +599,15 @@
   <si>
     <t>вызвано отсутствием половой разбивки по Самаркандской обл.</t>
   </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
+  </si>
 </sst>
 </file>
 
@@ -4932,13 +4941,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233C3929-9429-4275-AA31-D045521B40BA}">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AG234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W32" sqref="W32"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4964,9 +4973,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5051,8 +5061,17 @@
       <c r="AC1" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5143,8 +5162,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE2" s="8">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5235,8 +5266,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE3" s="8">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -5246,8 +5289,8 @@
       <c r="C4" s="3">
         <v>57963</v>
       </c>
-      <c r="D4" s="3">
-        <v>34385</v>
+      <c r="D4" s="10">
+        <v>34335</v>
       </c>
       <c r="F4" s="4">
         <v>112228</v>
@@ -5327,8 +5370,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE4" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5419,8 +5474,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE5" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5511,8 +5578,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE6" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -5603,8 +5682,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE7" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -5695,8 +5786,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE8" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5787,8 +5890,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE9" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -5879,8 +5994,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5971,8 +6098,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE11" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6063,8 +6202,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE12" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -6155,8 +6306,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE13" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -6166,8 +6329,8 @@
       <c r="C14" s="3">
         <v>1081917</v>
       </c>
-      <c r="D14" s="3">
-        <v>634156</v>
+      <c r="D14" s="10">
+        <v>634150</v>
       </c>
       <c r="F14" s="4">
         <v>1566721</v>
@@ -6247,8 +6410,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE14" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6339,8 +6514,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE15" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6431,8 +6618,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -6523,8 +6722,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE17" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6615,8 +6826,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE18" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6707,8 +6930,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE19" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6799,8 +7034,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE20" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6891,8 +7138,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE21" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6983,8 +7242,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE22" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -7075,8 +7346,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE23" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7167,8 +7450,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE24" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -7259,8 +7554,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE25" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -7351,8 +7658,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE26" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7443,8 +7762,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE27" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7535,8 +7866,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE28" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -7627,8 +7970,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE29" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -7719,8 +8074,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE30" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -7811,8 +8178,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE31" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -7903,8 +8282,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE32" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -7995,8 +8386,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE33" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -8087,8 +8490,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE34" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -8179,8 +8594,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE35" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -8271,8 +8698,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE36" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -8363,8 +8802,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE37" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -8455,8 +8906,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE38" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -8547,8 +9010,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE39" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -8639,8 +9114,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE40" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -8731,8 +9218,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE41" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -8823,8 +9322,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE42" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -8915,8 +9426,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE43" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -8926,8 +9449,8 @@
       <c r="C44" s="3">
         <v>61438</v>
       </c>
-      <c r="D44" s="3">
-        <v>44952</v>
+      <c r="D44" s="10">
+        <v>44352</v>
       </c>
       <c r="F44" s="4">
         <v>47519</v>
@@ -9007,8 +9530,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE44" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -9099,8 +9634,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE45" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -9110,8 +9657,8 @@
       <c r="C46" s="3">
         <v>116436</v>
       </c>
-      <c r="D46" s="3">
-        <v>77101</v>
+      <c r="D46" s="10">
+        <v>77104</v>
       </c>
       <c r="F46" s="4">
         <v>147869</v>
@@ -9191,8 +9738,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE46" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -9283,16 +9842,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE47" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="3">
         <v>3504834</v>
       </c>
-      <c r="C48" s="3">
-        <v>204517</v>
+      <c r="C48" s="10">
+        <v>204547</v>
       </c>
       <c r="D48" s="3">
         <v>135486</v>
@@ -9375,8 +9946,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE48" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -9467,8 +10050,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE49" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -9559,8 +10154,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE50" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -9651,8 +10258,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE51" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -9743,8 +10362,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE52" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -9835,8 +10466,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE53" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -9927,8 +10570,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE54" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -10019,8 +10674,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE55" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -10111,8 +10778,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE56" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -10203,8 +10882,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE57" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -10295,8 +10986,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE58" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -10387,8 +11090,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE59" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -10398,8 +11113,8 @@
       <c r="C60" s="3">
         <v>173771</v>
       </c>
-      <c r="D60" s="3">
-        <v>108501</v>
+      <c r="D60" s="10">
+        <v>108504</v>
       </c>
       <c r="F60" s="4">
         <v>124195</v>
@@ -10479,8 +11194,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE60" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -10571,8 +11298,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE61" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -10663,8 +11402,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE62" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -10755,8 +11506,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE63" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -10847,8 +11610,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE64" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -10939,8 +11714,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE65" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -11031,8 +11818,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE66" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -11055,7 +11854,7 @@
         <v>519140</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" ref="I67:I108" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I108" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="4">
@@ -11068,7 +11867,7 @@
         <v>14375</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M108" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M108" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="4">
@@ -11081,7 +11880,7 @@
         <v>10469</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" ref="Q67:Q108" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q108" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="4">
@@ -11094,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" ref="U67:U108" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U108" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="4">
@@ -11107,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="6">
-        <f t="shared" ref="Y67:Y108" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y108" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="4">
@@ -11120,11 +11919,23 @@
         <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <f t="shared" ref="AC67:AC108" si="11">Z67+AA67-AB67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="AC67:AC108" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="8">
+        <f t="shared" ref="AE67:AE122" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="8">
+        <f t="shared" ref="AF67:AF122" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="8">
+        <f t="shared" ref="AG67:AG122" si="17">D67-P67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -11147,7 +11958,7 @@
         <v>279577</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="4">
@@ -11160,7 +11971,7 @@
         <v>8676</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="4">
@@ -11173,7 +11984,7 @@
         <v>5506</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="4">
@@ -11186,7 +11997,7 @@
         <v>2478169</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="4">
@@ -11199,7 +12010,7 @@
         <v>102487</v>
       </c>
       <c r="Y68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="4">
@@ -11212,11 +12023,23 @@
         <v>55150</v>
       </c>
       <c r="AC68" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -11239,7 +12062,7 @@
         <v>176765</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="4">
@@ -11252,7 +12075,7 @@
         <v>7129</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="4">
@@ -11265,7 +12088,7 @@
         <v>4964</v>
       </c>
       <c r="Q69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="4">
@@ -11278,7 +12101,7 @@
         <v>1176323</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="4">
@@ -11291,7 +12114,7 @@
         <v>39833</v>
       </c>
       <c r="Y69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="4">
@@ -11304,11 +12127,23 @@
         <v>29118</v>
       </c>
       <c r="AC69" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -11331,7 +12166,7 @@
         <v>10688974</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="4">
@@ -11344,7 +12179,7 @@
         <v>391733</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="4">
@@ -11357,7 +12192,7 @@
         <v>304953</v>
       </c>
       <c r="Q70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="4">
@@ -11370,7 +12205,7 @@
         <v>72037359</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V70" s="4">
@@ -11383,7 +12218,7 @@
         <v>3371828</v>
       </c>
       <c r="Y70" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="4">
@@ -11396,11 +12231,23 @@
         <v>2111601</v>
       </c>
       <c r="AC70" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -11423,7 +12270,7 @@
         <v>393523</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="4">
@@ -11436,7 +12283,7 @@
         <v>15791</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="4">
@@ -11449,7 +12296,7 @@
         <v>13728</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="4">
@@ -11462,7 +12309,7 @@
         <v>2717698</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="4">
@@ -11475,7 +12322,7 @@
         <v>144075</v>
       </c>
       <c r="Y71" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="4">
@@ -11488,11 +12335,23 @@
         <v>90465</v>
       </c>
       <c r="AC71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -11515,7 +12374,7 @@
         <v>17084160</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72" s="4">
@@ -11528,7 +12387,7 @@
         <v>606936</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N72" s="4">
@@ -11541,7 +12400,7 @@
         <v>451227</v>
       </c>
       <c r="Q72" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R72" s="4">
@@ -11554,7 +12413,7 @@
         <v>111013447</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V72" s="4">
@@ -11567,7 +12426,7 @@
         <v>4895657</v>
       </c>
       <c r="Y72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z72" s="4">
@@ -11580,11 +12439,23 @@
         <v>2997042</v>
       </c>
       <c r="AC72" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -11607,7 +12478,7 @@
         <v>77322</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="4">
@@ -11620,7 +12491,7 @@
         <v>1847</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N73" s="4">
@@ -11633,7 +12504,7 @@
         <v>1524</v>
       </c>
       <c r="Q73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="4">
@@ -11646,7 +12517,7 @@
         <v>686384</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="4">
@@ -11659,7 +12530,7 @@
         <v>19547</v>
       </c>
       <c r="Y73" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="4">
@@ -11672,11 +12543,23 @@
         <v>14898</v>
       </c>
       <c r="AC73" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -11699,7 +12582,7 @@
         <v>334829</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="4">
@@ -11712,7 +12595,7 @@
         <v>8632</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N74" s="4">
@@ -11725,7 +12608,7 @@
         <v>5398</v>
       </c>
       <c r="Q74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R74" s="4">
@@ -11738,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V74" s="4">
@@ -11751,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z74" s="4">
@@ -11764,11 +12647,23 @@
         <v>0</v>
       </c>
       <c r="AC74" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -11791,7 +12686,7 @@
         <v>31884</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75" s="4">
@@ -11804,7 +12699,7 @@
         <v>860</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N75" s="4">
@@ -11817,7 +12712,7 @@
         <v>521</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R75" s="4">
@@ -11830,7 +12725,7 @@
         <v>127550</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V75" s="4">
@@ -11843,7 +12738,7 @@
         <v>3369</v>
       </c>
       <c r="Y75" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z75" s="4">
@@ -11856,11 +12751,23 @@
         <v>2261</v>
       </c>
       <c r="AC75" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -11883,7 +12790,7 @@
         <v>65049</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76" s="4">
@@ -11896,7 +12803,7 @@
         <v>1471</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N76" s="4">
@@ -11909,7 +12816,7 @@
         <v>1171</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R76" s="4">
@@ -11922,7 +12829,7 @@
         <v>608175</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V76" s="4">
@@ -11935,7 +12842,7 @@
         <v>13800</v>
       </c>
       <c r="Y76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z76" s="4">
@@ -11948,11 +12855,23 @@
         <v>11057</v>
       </c>
       <c r="AC76" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -11975,7 +12894,7 @@
         <v>120664</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77" s="4">
@@ -11988,7 +12907,7 @@
         <v>1999</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N77" s="4">
@@ -12001,7 +12920,7 @@
         <v>1832</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R77" s="4">
@@ -12014,7 +12933,7 @@
         <v>1026562</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V77" s="4">
@@ -12027,7 +12946,7 @@
         <v>26963</v>
       </c>
       <c r="Y77" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z77" s="4">
@@ -12040,11 +12959,23 @@
         <v>21342</v>
       </c>
       <c r="AC77" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -12067,7 +12998,7 @@
         <v>41146</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="4">
@@ -12080,7 +13011,7 @@
         <v>643</v>
       </c>
       <c r="M78" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N78" s="4">
@@ -12093,7 +13024,7 @@
         <v>430</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R78" s="4">
@@ -12106,7 +13037,7 @@
         <v>303956</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V78" s="4">
@@ -12119,7 +13050,7 @@
         <v>11658</v>
       </c>
       <c r="Y78" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z78" s="4">
@@ -12132,11 +13063,23 @@
         <v>6407</v>
       </c>
       <c r="AC78" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -12159,7 +13102,7 @@
         <v>194976</v>
       </c>
       <c r="I79" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79" s="4">
@@ -12172,7 +13115,7 @@
         <v>9680</v>
       </c>
       <c r="M79" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N79" s="4">
@@ -12185,7 +13128,7 @@
         <v>7499</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R79" s="4">
@@ -12198,7 +13141,7 @@
         <v>2324907</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V79" s="4">
@@ -12211,7 +13154,7 @@
         <v>129862</v>
       </c>
       <c r="Y79" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z79" s="4">
@@ -12224,11 +13167,23 @@
         <v>81379</v>
       </c>
       <c r="AC79" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -12251,7 +13206,7 @@
         <v>69678</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="4">
@@ -12264,7 +13219,7 @@
         <v>1403</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N80" s="4">
@@ -12277,7 +13232,7 @@
         <v>1019</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R80" s="4">
@@ -12290,7 +13245,7 @@
         <v>1022604</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V80" s="4">
@@ -12303,7 +13258,7 @@
         <v>26734</v>
       </c>
       <c r="Y80" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z80" s="4">
@@ -12316,11 +13271,23 @@
         <v>16147</v>
       </c>
       <c r="AC80" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>130</v>
       </c>
@@ -12343,7 +13310,7 @@
         <v>67906</v>
       </c>
       <c r="I81" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="4">
@@ -12356,7 +13323,7 @@
         <v>2719</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N81" s="4">
@@ -12369,7 +13336,7 @@
         <v>1699</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R81" s="4">
@@ -12382,7 +13349,7 @@
         <v>1107509</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V81" s="4">
@@ -12395,7 +13362,7 @@
         <v>64423</v>
       </c>
       <c r="Y81" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z81" s="4">
@@ -12408,11 +13375,23 @@
         <v>41250</v>
       </c>
       <c r="AC81" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -12435,7 +13414,7 @@
         <v>172220</v>
       </c>
       <c r="I82" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="4">
@@ -12448,7 +13427,7 @@
         <v>8126</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N82" s="4">
@@ -12461,7 +13440,7 @@
         <v>5504</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R82" s="4">
@@ -12474,7 +13453,7 @@
         <v>932245</v>
       </c>
       <c r="U82" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V82" s="4">
@@ -12487,7 +13466,7 @@
         <v>37139</v>
       </c>
       <c r="Y82" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z82" s="4">
@@ -12500,11 +13479,23 @@
         <v>23384</v>
       </c>
       <c r="AC82" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>132</v>
       </c>
@@ -12527,7 +13518,7 @@
         <v>360867</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="4">
@@ -12540,7 +13531,7 @@
         <v>10337</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N83" s="4">
@@ -12553,7 +13544,7 @@
         <v>5070</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R83" s="4">
@@ -12566,7 +13557,7 @@
         <v>886606</v>
       </c>
       <c r="U83" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V83" s="4">
@@ -12579,7 +13570,7 @@
         <v>29889</v>
       </c>
       <c r="Y83" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z83" s="4">
@@ -12592,11 +13583,23 @@
         <v>17906</v>
       </c>
       <c r="AC83" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>133</v>
       </c>
@@ -12619,7 +13622,7 @@
         <v>59374</v>
       </c>
       <c r="I84" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="4">
@@ -12632,7 +13635,7 @@
         <v>2035</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N84" s="4">
@@ -12645,7 +13648,7 @@
         <v>1151</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R84" s="4">
@@ -12658,7 +13661,7 @@
         <v>60755</v>
       </c>
       <c r="U84" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V84" s="4">
@@ -12671,7 +13674,7 @@
         <v>2123</v>
       </c>
       <c r="Y84" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z84" s="4">
@@ -12684,11 +13687,23 @@
         <v>934</v>
       </c>
       <c r="AC84" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -12711,7 +13726,7 @@
         <v>84023</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85" s="4">
@@ -12724,7 +13739,7 @@
         <v>3769</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N85" s="4">
@@ -12737,7 +13752,7 @@
         <v>2870</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R85" s="4">
@@ -12750,7 +13765,7 @@
         <v>785777</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V85" s="4">
@@ -12763,7 +13778,7 @@
         <v>32713</v>
       </c>
       <c r="Y85" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z85" s="4">
@@ -12776,11 +13791,23 @@
         <v>20992</v>
       </c>
       <c r="AC85" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>135</v>
       </c>
@@ -12803,7 +13830,7 @@
         <v>1679938</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86" s="4">
@@ -12816,7 +13843,7 @@
         <v>53521</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N86" s="4">
@@ -12829,7 +13856,7 @@
         <v>35688</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R86" s="4">
@@ -12842,7 +13869,7 @@
         <v>9873030</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V86" s="4">
@@ -12855,7 +13882,7 @@
         <v>398220</v>
       </c>
       <c r="Y86" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z86" s="4">
@@ -12868,11 +13895,23 @@
         <v>257957</v>
       </c>
       <c r="AC86" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -12895,7 +13934,7 @@
         <v>56414</v>
       </c>
       <c r="I87" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J87" s="4">
@@ -12908,7 +13947,7 @@
         <v>2871</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N87" s="4">
@@ -12921,7 +13960,7 @@
         <v>2317</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R87" s="4">
@@ -12934,7 +13973,7 @@
         <v>100858</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V87" s="4">
@@ -12947,7 +13986,7 @@
         <v>5833</v>
       </c>
       <c r="Y87" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z87" s="4">
@@ -12960,11 +13999,23 @@
         <v>2404</v>
       </c>
       <c r="AC87" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>137</v>
       </c>
@@ -12987,7 +14038,7 @@
         <v>111254</v>
       </c>
       <c r="I88" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J88" s="4">
@@ -13000,7 +14051,7 @@
         <v>5223</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N88" s="4">
@@ -13013,7 +14064,7 @@
         <v>4151</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R88" s="4">
@@ -13026,7 +14077,7 @@
         <v>706721</v>
       </c>
       <c r="U88" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V88" s="4">
@@ -13039,7 +14090,7 @@
         <v>43980</v>
       </c>
       <c r="Y88" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z88" s="4">
@@ -13052,11 +14103,23 @@
         <v>29433</v>
       </c>
       <c r="AC88" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -13079,7 +14142,7 @@
         <v>114390</v>
       </c>
       <c r="I89" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J89" s="4">
@@ -13092,7 +14155,7 @@
         <v>3920</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N89" s="4">
@@ -13105,7 +14168,7 @@
         <v>2712</v>
       </c>
       <c r="Q89" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R89" s="4">
@@ -13118,7 +14181,7 @@
         <v>728761</v>
       </c>
       <c r="U89" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V89" s="4">
@@ -13131,7 +14194,7 @@
         <v>29456</v>
       </c>
       <c r="Y89" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z89" s="4">
@@ -13144,11 +14207,23 @@
         <v>18467</v>
       </c>
       <c r="AC89" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>139</v>
       </c>
@@ -13171,7 +14246,7 @@
         <v>119733</v>
       </c>
       <c r="I90" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J90" s="4">
@@ -13184,7 +14259,7 @@
         <v>4338</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N90" s="4">
@@ -13197,7 +14272,7 @@
         <v>3336</v>
       </c>
       <c r="Q90" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R90" s="4">
@@ -13210,7 +14285,7 @@
         <v>543325</v>
       </c>
       <c r="U90" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V90" s="4">
@@ -13223,7 +14298,7 @@
         <v>25941</v>
       </c>
       <c r="Y90" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z90" s="4">
@@ -13236,11 +14311,23 @@
         <v>18681</v>
       </c>
       <c r="AC90" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -13263,7 +14350,7 @@
         <v>181839</v>
       </c>
       <c r="I91" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J91" s="4">
@@ -13276,7 +14363,7 @@
         <v>5138</v>
       </c>
       <c r="M91" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N91" s="4">
@@ -13289,7 +14376,7 @@
         <v>2775</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R91" s="4">
@@ -13302,7 +14389,7 @@
         <v>348966</v>
       </c>
       <c r="U91" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V91" s="4">
@@ -13315,7 +14402,7 @@
         <v>14427</v>
       </c>
       <c r="Y91" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z91" s="4">
@@ -13328,11 +14415,23 @@
         <v>7549</v>
       </c>
       <c r="AC91" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>141</v>
       </c>
@@ -13355,7 +14454,7 @@
         <v>117057</v>
       </c>
       <c r="I92" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J92" s="4">
@@ -13368,7 +14467,7 @@
         <v>4203</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N92" s="4">
@@ -13381,7 +14480,7 @@
         <v>3593</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R92" s="4">
@@ -13394,7 +14493,7 @@
         <v>1681757</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V92" s="4">
@@ -13407,7 +14506,7 @@
         <v>100989</v>
       </c>
       <c r="Y92" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z92" s="4">
@@ -13420,11 +14519,23 @@
         <v>66890</v>
       </c>
       <c r="AC92" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>142</v>
       </c>
@@ -13447,7 +14558,7 @@
         <v>173699</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J93" s="4">
@@ -13460,7 +14571,7 @@
         <v>7476</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N93" s="4">
@@ -13473,7 +14584,7 @@
         <v>4915</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R93" s="4">
@@ -13486,7 +14597,7 @@
         <v>2927241</v>
       </c>
       <c r="U93" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V93" s="4">
@@ -13499,7 +14610,7 @@
         <v>158759</v>
       </c>
       <c r="Y93" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z93" s="4">
@@ -13512,11 +14623,23 @@
         <v>98924</v>
       </c>
       <c r="AC93" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>143</v>
       </c>
@@ -13539,7 +14662,7 @@
         <v>10681</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J94" s="4">
@@ -13552,7 +14675,7 @@
         <v>629</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N94" s="4">
@@ -13565,7 +14688,7 @@
         <v>487</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R94" s="4">
@@ -13578,7 +14701,7 @@
         <v>258624</v>
       </c>
       <c r="U94" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V94" s="4">
@@ -13591,7 +14714,7 @@
         <v>9899</v>
       </c>
       <c r="Y94" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z94" s="4">
@@ -13604,11 +14727,23 @@
         <v>7108</v>
       </c>
       <c r="AC94" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -13631,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J95" s="4">
@@ -13644,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N95" s="4">
@@ -13657,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="Q95" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R95" s="4">
@@ -13670,7 +14805,7 @@
         <v>6209</v>
       </c>
       <c r="U95" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V95" s="4">
@@ -13683,7 +14818,7 @@
         <v>221</v>
       </c>
       <c r="Y95" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z95" s="4">
@@ -13696,11 +14831,23 @@
         <v>155</v>
       </c>
       <c r="AC95" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>145</v>
       </c>
@@ -13723,7 +14870,7 @@
         <v>885067</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J96" s="4">
@@ -13736,7 +14883,7 @@
         <v>33798</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N96" s="4">
@@ -13749,7 +14896,7 @@
         <v>24286</v>
       </c>
       <c r="Q96" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R96" s="4">
@@ -13762,7 +14909,7 @@
         <v>7302462</v>
       </c>
       <c r="U96" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V96" s="4">
@@ -13775,7 +14922,7 @@
         <v>389505</v>
       </c>
       <c r="Y96" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z96" s="4">
@@ -13788,11 +14935,23 @@
         <v>249611</v>
       </c>
       <c r="AC96" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>146</v>
       </c>
@@ -13815,7 +14974,7 @@
         <v>146530</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J97" s="4">
@@ -13828,7 +14987,7 @@
         <v>7817</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N97" s="4">
@@ -13841,7 +15000,7 @@
         <v>6245</v>
       </c>
       <c r="Q97" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R97" s="4">
@@ -13854,7 +15013,7 @@
         <v>974472</v>
       </c>
       <c r="U97" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V97" s="4">
@@ -13867,7 +15026,7 @@
         <v>34337</v>
       </c>
       <c r="Y97" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z97" s="4">
@@ -13880,11 +15039,23 @@
         <v>19081</v>
       </c>
       <c r="AC97" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE97" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -13907,7 +15078,7 @@
         <v>71750</v>
       </c>
       <c r="I98" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="4" t="s">
@@ -13920,7 +15091,7 @@
         <v>2699</v>
       </c>
       <c r="M98" s="6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N98" s="4" t="s">
@@ -13933,7 +15104,7 @@
         <v>1567</v>
       </c>
       <c r="Q98" s="6" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R98" s="4" t="s">
@@ -13946,7 +15117,7 @@
         <v>379239</v>
       </c>
       <c r="U98" s="6" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="V98" s="4" t="s">
@@ -13959,75 +15130,87 @@
         <v>12673</v>
       </c>
       <c r="Y98" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>4964</v>
+      </c>
+      <c r="AC98" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE98" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG98" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="3">
+        <v>879745</v>
+      </c>
+      <c r="C99" t="s">
+        <v>158</v>
+      </c>
+      <c r="D99" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="4">
+        <v>73213</v>
+      </c>
+      <c r="G99" s="4">
+        <v>68548</v>
+      </c>
+      <c r="H99" s="4">
+        <v>141761</v>
+      </c>
+      <c r="I99" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M99" s="6" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z98" s="4" t="s">
+      <c r="N99" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AA98" s="4" t="s">
+      <c r="O99" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AB98" s="3">
-        <v>4964</v>
-      </c>
-      <c r="AC98" s="6" t="e">
+      <c r="P99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q99" s="6" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="3">
-        <v>879745</v>
-      </c>
-      <c r="C99" t="s">
-        <v>158</v>
-      </c>
-      <c r="D99" t="s">
-        <v>158</v>
-      </c>
-      <c r="F99" s="4">
-        <v>73213</v>
-      </c>
-      <c r="G99" s="4">
-        <v>68548</v>
-      </c>
-      <c r="H99" s="4">
-        <v>141761</v>
-      </c>
-      <c r="I99" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M99" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="O99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="P99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q99" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R99" s="4">
         <v>396244</v>
       </c>
@@ -14038,7 +15221,7 @@
         <v>737984</v>
       </c>
       <c r="U99" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V99" s="4" t="s">
@@ -14051,7 +15234,7 @@
         <v>158</v>
       </c>
       <c r="Y99" s="6" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z99" s="4" t="s">
@@ -14064,11 +15247,23 @@
         <v>158</v>
       </c>
       <c r="AC99" s="6" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE99" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG99" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -14091,7 +15286,7 @@
         <v>55487</v>
       </c>
       <c r="I100" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J100" s="4">
@@ -14104,7 +15299,7 @@
         <v>2947</v>
       </c>
       <c r="M100" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N100" s="4">
@@ -14117,7 +15312,7 @@
         <v>1919</v>
       </c>
       <c r="Q100" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R100" s="4">
@@ -14130,7 +15325,7 @@
         <v>715529</v>
       </c>
       <c r="U100" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V100" s="4">
@@ -14143,7 +15338,7 @@
         <v>14916</v>
       </c>
       <c r="Y100" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z100" s="4">
@@ -14156,11 +15351,23 @@
         <v>8797</v>
       </c>
       <c r="AC100" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>150</v>
       </c>
@@ -14183,7 +15390,7 @@
         <v>98666</v>
       </c>
       <c r="I101" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J101" s="4">
@@ -14196,7 +15403,7 @@
         <v>4504</v>
       </c>
       <c r="M101" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N101" s="4">
@@ -14209,7 +15416,7 @@
         <v>2128</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R101" s="4">
@@ -14222,7 +15429,7 @@
         <v>1018699</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V101" s="4">
@@ -14235,7 +15442,7 @@
         <v>32491</v>
       </c>
       <c r="Y101" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z101" s="4">
@@ -14248,11 +15455,23 @@
         <v>17232</v>
       </c>
       <c r="AC101" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -14275,7 +15494,7 @@
         <v>244810</v>
       </c>
       <c r="I102" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102" s="4">
@@ -14288,7 +15507,7 @@
         <v>6724</v>
       </c>
       <c r="M102" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N102" s="4">
@@ -14301,7 +15520,7 @@
         <v>4865</v>
       </c>
       <c r="Q102" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R102" s="4">
@@ -14314,7 +15533,7 @@
         <v>1447792</v>
       </c>
       <c r="U102" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V102" s="4">
@@ -14327,7 +15546,7 @@
         <v>68065</v>
       </c>
       <c r="Y102" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z102" s="4">
@@ -14340,11 +15559,23 @@
         <v>51311</v>
       </c>
       <c r="AC102" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -14367,7 +15598,7 @@
         <v>33487</v>
       </c>
       <c r="I103" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J103" s="4">
@@ -14380,7 +15611,7 @@
         <v>2309</v>
       </c>
       <c r="M103" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N103" s="4">
@@ -14393,7 +15624,7 @@
         <v>1324</v>
       </c>
       <c r="Q103" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R103" s="4">
@@ -14406,7 +15637,7 @@
         <v>580684</v>
       </c>
       <c r="U103" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V103" s="4">
@@ -14419,7 +15650,7 @@
         <v>23679</v>
       </c>
       <c r="Y103" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z103" s="4">
@@ -14432,11 +15663,23 @@
         <v>15184</v>
       </c>
       <c r="AC103" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -14459,7 +15702,7 @@
         <v>61241</v>
       </c>
       <c r="I104" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J104" s="4">
@@ -14472,7 +15715,7 @@
         <v>2966</v>
       </c>
       <c r="M104" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N104" s="4">
@@ -14485,7 +15728,7 @@
         <v>2075</v>
       </c>
       <c r="Q104" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R104" s="4">
@@ -14498,7 +15741,7 @@
         <v>688987</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V104" s="4">
@@ -14511,7 +15754,7 @@
         <v>17149</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z104" s="4">
@@ -14524,11 +15767,23 @@
         <v>11645</v>
       </c>
       <c r="AC104" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -14551,7 +15806,7 @@
         <v>372248</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J105" s="4">
@@ -14564,7 +15819,7 @@
         <v>12506</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N105" s="4">
@@ -14577,7 +15832,7 @@
         <v>6862</v>
       </c>
       <c r="Q105" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R105" s="4">
@@ -14590,7 +15845,7 @@
         <v>1578086</v>
       </c>
       <c r="U105" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V105" s="4">
@@ -14603,7 +15858,7 @@
         <v>41113</v>
       </c>
       <c r="Y105" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z105" s="4">
@@ -14616,11 +15871,23 @@
         <v>24915</v>
       </c>
       <c r="AC105" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -14643,7 +15910,7 @@
         <v>1225980</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-71750</v>
       </c>
       <c r="J106" s="4">
@@ -14656,7 +15923,7 @@
         <v>42472</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2699</v>
       </c>
       <c r="N106" s="4">
@@ -14669,7 +15936,7 @@
         <v>26985</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1567</v>
       </c>
       <c r="R106" s="4">
@@ -14682,7 +15949,7 @@
         <v>8121472</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-379239</v>
       </c>
       <c r="V106" s="4">
@@ -14695,7 +15962,7 @@
         <v>244423</v>
       </c>
       <c r="Y106" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-12673</v>
       </c>
       <c r="Z106" s="4">
@@ -14708,11 +15975,23 @@
         <v>153129</v>
       </c>
       <c r="AC106" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4964</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE106" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>156</v>
       </c>
@@ -14735,7 +16014,7 @@
         <v>3790985</v>
       </c>
       <c r="I107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-71750</v>
       </c>
       <c r="J107" s="4">
@@ -14748,7 +16027,7 @@
         <v>129791</v>
       </c>
       <c r="M107" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2699</v>
       </c>
       <c r="N107" s="4">
@@ -14761,7 +16040,7 @@
         <v>86959</v>
       </c>
       <c r="Q107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1567</v>
       </c>
       <c r="R107" s="4">
@@ -14774,7 +16053,7 @@
         <v>25296964</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-379239</v>
       </c>
       <c r="V107" s="4">
@@ -14787,7 +16066,7 @@
         <v>1032148</v>
       </c>
       <c r="Y107" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-12673</v>
       </c>
       <c r="Z107" s="4">
@@ -14800,11 +16079,23 @@
         <v>660697</v>
       </c>
       <c r="AC107" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4964</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE107" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF107" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>157</v>
       </c>
@@ -14827,7 +16118,7 @@
         <v>20875145</v>
       </c>
       <c r="I108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-71750</v>
       </c>
       <c r="J108" s="4">
@@ -14840,7 +16131,7 @@
         <v>736727</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2699</v>
       </c>
       <c r="N108" s="4">
@@ -14853,7 +16144,7 @@
         <v>538186</v>
       </c>
       <c r="Q108" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1567</v>
       </c>
       <c r="R108" s="4">
@@ -14866,7 +16157,7 @@
         <v>136310411</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-379239</v>
       </c>
       <c r="V108" s="4">
@@ -14879,7 +16170,7 @@
         <v>5927805</v>
       </c>
       <c r="Y108" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-12583</v>
       </c>
       <c r="Z108" s="4">
@@ -14892,11 +16183,23 @@
         <v>3657739</v>
       </c>
       <c r="AC108" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4964</v>
       </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE108" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF108" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG108" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -14924,8 +16227,20 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="3"/>
       <c r="AC109" s="6"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE109" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF109" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG109" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -14953,8 +16268,11 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="6"/>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE110" s="8"/>
+      <c r="AF110" s="8"/>
+      <c r="AG110" s="8"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -14985,8 +16303,11 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="6"/>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE111" s="8"/>
+      <c r="AF111" s="8"/>
+      <c r="AG111" s="8"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -15014,8 +16335,11 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="6"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="8"/>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>185</v>
       </c>
@@ -15046,8 +16370,11 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="8"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE113" s="8"/>
+      <c r="AF113" s="8"/>
+      <c r="AG113" s="8"/>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>186</v>
       </c>
@@ -15078,8 +16405,11 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
       <c r="AC114" s="8"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE114" s="8"/>
+      <c r="AF114" s="8"/>
+      <c r="AG114" s="8"/>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -15107,8 +16437,11 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="8"/>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE115" s="8"/>
+      <c r="AF115" s="8"/>
+      <c r="AG115" s="8"/>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -15136,8 +16469,11 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="8"/>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -15165,8 +16501,11 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="8"/>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE117" s="8"/>
+      <c r="AF117" s="8"/>
+      <c r="AG117" s="8"/>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -15194,8 +16533,11 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="8"/>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE118" s="8"/>
+      <c r="AF118" s="8"/>
+      <c r="AG118" s="8"/>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -15223,8 +16565,11 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="8"/>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE119" s="8"/>
+      <c r="AF119" s="8"/>
+      <c r="AG119" s="8"/>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -15252,8 +16597,11 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
       <c r="AC120" s="8"/>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE120" s="8"/>
+      <c r="AF120" s="8"/>
+      <c r="AG120" s="8"/>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -15281,8 +16629,11 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
       <c r="AC121" s="8"/>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="8"/>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -15310,8 +16661,11 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
       <c r="AC122" s="8"/>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE122" s="8"/>
+      <c r="AF122" s="8"/>
+      <c r="AG122" s="8"/>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -15340,7 +16694,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -15369,7 +16723,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -15398,7 +16752,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -15427,7 +16781,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -15456,7 +16810,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
